--- a/Test cases- Graphs/packet statistics.xlsx
+++ b/Test cases- Graphs/packet statistics.xlsx
@@ -62,20 +62,20 @@
       <table:table table:name="Sheet1" table:style-name="ta1">
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="ce1"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce1"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co5" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>PCAP FILES STATISTICS</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" table:number-columns-repeated="2"/>
-          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="Default" table:number-columns-repeated="2"/>
-          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -88,7 +88,7 @@
               total number of bytes
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Output number of bytes</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -103,8 +103,7 @@
           <table:table-cell table:style-name="Default" office:value-type="string" calcext:value-type="string">
             <text:p>(Bytes)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -113,7 +112,7 @@
           <table:table-cell office:value-type="float" office:value="120506043" calcext:value-type="float">
             <text:p>120506043</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="100801710" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="100801710" calcext:value-type="float">
             <text:p>100801710</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="220549" calcext:value-type="float">
@@ -130,7 +129,7 @@
           <table:table-cell office:value-type="float" office:value="56874144" calcext:value-type="float">
             <text:p>56874144</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="44843042" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="44843042" calcext:value-type="float">
             <text:p>44843042</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="120737" calcext:value-type="float">
@@ -147,7 +146,7 @@
           <table:table-cell office:value-type="float" office:value="112985303" calcext:value-type="float">
             <text:p>112985303</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="103734305" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="103734305" calcext:value-type="float">
             <text:p>103734305</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="183695" calcext:value-type="float">
@@ -164,7 +163,7 @@
           <table:table-cell office:value-type="float" office:value="418133868" calcext:value-type="float">
             <text:p>418133868</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="410288597" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="410288597" calcext:value-type="float">
             <text:p>410288597</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="498918" calcext:value-type="float">
@@ -181,7 +180,7 @@
           <table:table-cell office:value-type="float" office:value="92580690" calcext:value-type="float">
             <text:p>92580690</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="84927669" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="84927669" calcext:value-type="float">
             <text:p>84927669</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="110612" calcext:value-type="float">
@@ -198,7 +197,7 @@
           <table:table-cell office:value-type="float" office:value="470197892" calcext:value-type="float">
             <text:p>470197892</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="470066770" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="470066770" calcext:value-type="float">
             <text:p>470066770</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="295035" calcext:value-type="float">
@@ -215,7 +214,7 @@
           <table:table-cell office:value-type="float" office:value="116888015" calcext:value-type="float">
             <text:p>116888015</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="113118828" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="113118828" calcext:value-type="float">
             <text:p>113118828</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="142723" calcext:value-type="float">
@@ -232,7 +231,7 @@
           <table:table-cell office:value-type="float" office:value="133438511" calcext:value-type="float">
             <text:p>133438511</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="27974485" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="27974485" calcext:value-type="float">
             <text:p>27974485</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="187108" calcext:value-type="float">
@@ -249,7 +248,7 @@
           <table:table-cell office:value-type="float" office:value="410359590" calcext:value-type="float">
             <text:p>410359590</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="415191762" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="415191762" calcext:value-type="float">
             <text:p>415191762</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="196728" calcext:value-type="float">
@@ -266,7 +265,7 @@
           <table:table-cell table:style-name="Default" office:value-type="float" office:value="141373207" calcext:value-type="float">
             <text:p>141373207</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="136081627" calcext:value-type="float">
+          <table:table-cell office:value-type="float" office:value="136081627" calcext:value-type="float">
             <text:p>136081627</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="191865" calcext:value-type="float">
@@ -283,7 +282,7 @@
           <table:table-cell office:value-type="float" office:value="293464936" calcext:value-type="float">
             <text:p>293464936</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="299185045" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="299185045" calcext:value-type="float">
             <text:p>299185045</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="117548" calcext:value-type="float">
@@ -300,7 +299,7 @@
           <table:table-cell table:style-name="Default" office:value-type="float" office:value="52620399" calcext:value-type="float">
             <text:p>52620399</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="44080568" calcext:value-type="float">
+          <table:table-cell office:value-type="float" office:value="44080568" calcext:value-type="float">
             <text:p>44080568</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="123259" calcext:value-type="float">
@@ -317,7 +316,7 @@
           <table:table-cell office:value-type="float" office:value="117945600" calcext:value-type="float">
             <text:p>117945600</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="111390179" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="111390179" calcext:value-type="float">
             <text:p>111390179</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="128056" calcext:value-type="float">
@@ -334,7 +333,7 @@
           <table:table-cell office:value-type="float" office:value="203853426" calcext:value-type="float">
             <text:p>203853426</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="206050250" calcext:value-type="float">
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="206050250" calcext:value-type="float">
             <text:p>206050250</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="111959" calcext:value-type="float">
@@ -351,7 +350,7 @@
           <table:table-cell table:style-name="Default" office:value-type="float" office:value="169517388" calcext:value-type="float">
             <text:p>169517388</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="162799411" calcext:value-type="float">
+          <table:table-cell office:value-type="float" office:value="162799411" calcext:value-type="float">
             <text:p>162799411</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="240184" calcext:value-type="float">
@@ -368,7 +367,7 @@
           <table:table-cell table:style-name="Default" office:value-type="float" office:value="77703616" calcext:value-type="float">
             <text:p>77703616</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="68117157" calcext:value-type="float">
+          <table:table-cell office:value-type="float" office:value="68117157" calcext:value-type="float">
             <text:p>68117157</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="97201" calcext:value-type="float">
@@ -385,7 +384,7 @@
           <table:table-cell office:value-type="float" office:value="109934779" calcext:value-type="float">
             <text:p>109934779</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="102822508" calcext:value-type="float">
+          <table:table-cell office:value-type="float" office:value="102822508" calcext:value-type="float">
             <text:p>102822508</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1" office:value-type="float" office:value="116399" calcext:value-type="float">
@@ -402,7 +401,7 @@
           <table:table-cell table:style-name="Default" office:value-type="float" office:value="52620399" calcext:value-type="float">
             <text:p>52620399</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="44080568" calcext:value-type="float">
+          <table:table-cell office:value-type="float" office:value="44080568" calcext:value-type="float">
             <text:p>44080568</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="123259" calcext:value-type="float">
@@ -416,10 +415,10 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>d19</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="57716898" calcext:value-type="float">
-            <text:p>57716898</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="60008420" calcext:value-type="float">
+          <table:table-cell table:style-name="Default" office:value-type="float" office:value="66002508" calcext:value-type="float">
+            <text:p>66002508</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="60008420" calcext:value-type="float">
             <text:p>60008420</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="122873" calcext:value-type="float">
@@ -436,7 +435,7 @@
           <table:table-cell table:style-name="Default" office:value-type="float" office:value="64318621" calcext:value-type="float">
             <text:p>64318621</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="Default" office:value-type="float" office:value="50968511" calcext:value-type="float">
+          <table:table-cell office:value-type="float" office:value="50968511" calcext:value-type="float">
             <text:p>50968511</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="125909" calcext:value-type="float">
@@ -457,9 +456,9 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2017-11-29T19:44:43.388108251</meta:creation-date>
-    <dc:date>2017-12-04T00:40:06.172198493</dc:date>
-    <meta:editing-duration>PT20H37M4S</meta:editing-duration>
-    <meta:editing-cycles>43</meta:editing-cycles>
+    <dc:date>2017-12-05T22:44:41.086688745</dc:date>
+    <meta:editing-duration>PT20H39M47S</meta:editing-duration>
+    <meta:editing-cycles>44</meta:editing-cycles>
     <meta:generator>LibreOffice/5.1.6.2$Linux_X86_64 LibreOffice_project/10m0$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="107" meta:object-count="0"/>
     <meta:user-defined meta:name="qrichtext">1</meta:user-defined>
@@ -480,8 +479,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">5</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -529,7 +528,7 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">jAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQARHVwbGV4Ok5vbmUAABIAQ09NUEFUX0RVUExFWF9NT0RFCgBEVVBMRVhfT0ZG</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">jAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFCgBEVVBMRVhfT0ZG</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
@@ -653,9 +652,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2017-12-04">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2017-12-05">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="21:35:28.315518937">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="22:41:58.107887011">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
